--- a/Trabalho 3 - Pthreads/1 - Teste/without_transpose.xlsx
+++ b/Trabalho 3 - Pthreads/1 - Teste/without_transpose.xlsx
@@ -167,7 +167,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -229,51 +229,51 @@
         <v>1440</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>32.774</v>
+        <v>32.7866666666667</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>8.0554919402</v>
+        <v>8.0445623055</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>4.1320616088</v>
+        <v>4.13784386475</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>2.0872869713</v>
+        <v>2.08918829475</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1.1670464509</v>
+        <v>1.187304587625</v>
       </c>
       <c r="G2" s="1" t="n">
         <f aca="false">B2 / C2</f>
-        <v>4.06852868121501</v>
+        <v>4.07563089470396</v>
       </c>
       <c r="H2" s="1" t="n">
         <f aca="false">B2 / D2</f>
-        <v>7.93163391615498</v>
+        <v>7.92361136339</v>
       </c>
       <c r="I2" s="1" t="n">
         <f aca="false">B2 / E2</f>
-        <v>15.7017221161438</v>
+        <v>15.6934952914764</v>
       </c>
       <c r="J2" s="1" t="n">
         <f aca="false">B2 / F2</f>
-        <v>28.0828582056228</v>
+        <v>27.6143687208779</v>
       </c>
       <c r="K2" s="1" t="n">
         <f aca="false">G2 / C1</f>
-        <v>1.01713217030375</v>
+        <v>1.01890772367599</v>
       </c>
       <c r="L2" s="1" t="n">
         <f aca="false">H2 / D1</f>
-        <v>0.991454239519373</v>
+        <v>0.990451420423749</v>
       </c>
       <c r="M2" s="1" t="n">
         <f aca="false">I2 / E1</f>
-        <v>0.981357632258987</v>
+        <v>0.980843455717273</v>
       </c>
       <c r="N2" s="1" t="n">
         <f aca="false">J2 / F1</f>
-        <v>0.877589318925712</v>
+        <v>0.862949022527435</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -281,51 +281,51 @@
         <v>1600</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>48.926</v>
+        <v>48.1233333333333</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>11.3594700336</v>
+        <v>11.3076139785</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>6.396153784</v>
+        <v>6.224142921125</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>2.9285040917</v>
+        <v>2.929804061125</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1.7015497962</v>
+        <v>1.749868337</v>
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">B3 / C3</f>
-        <v>4.30706713035754</v>
+        <v>4.25583446913149</v>
       </c>
       <c r="H3" s="1" t="n">
         <f aca="false">B3 / D3</f>
-        <v>7.64928450006761</v>
+        <v>7.7317204863662</v>
       </c>
       <c r="I3" s="1" t="n">
         <f aca="false">B3 / E3</f>
-        <v>16.7068231656792</v>
+        <v>16.4254442718107</v>
       </c>
       <c r="J3" s="1" t="n">
         <f aca="false">B3 / F3</f>
-        <v>28.7537867591442</v>
+        <v>27.5011166930631</v>
       </c>
       <c r="K3" s="1" t="n">
         <f aca="false">G3 / C1</f>
-        <v>1.07676678258938</v>
+        <v>1.06395861728287</v>
       </c>
       <c r="L3" s="1" t="n">
         <f aca="false">H3 / D1</f>
-        <v>0.956160562508451</v>
+        <v>0.966465060795775</v>
       </c>
       <c r="M3" s="1" t="n">
         <f aca="false">I3 / E1</f>
-        <v>1.04417644785495</v>
+        <v>1.02659026698817</v>
       </c>
       <c r="N3" s="1" t="n">
         <f aca="false">J3 / F1</f>
-        <v>0.898555836223255</v>
+        <v>0.859409896658223</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -333,51 +333,51 @@
         <v>1760</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>68.304</v>
+        <v>68.2366666666667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>15.5921443715</v>
+        <v>15.51010487</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>8.3100967339</v>
+        <v>8.35904008425</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>3.9782010737</v>
+        <v>3.983047112125</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>2.3124371352</v>
+        <v>2.373984989125</v>
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">B4 / C4</f>
-        <v>4.38066749335961</v>
+        <v>4.39949743980465</v>
       </c>
       <c r="H4" s="1" t="n">
         <f aca="false">B4 / D4</f>
-        <v>8.21939890559425</v>
+        <v>8.16321802251401</v>
       </c>
       <c r="I4" s="1" t="n">
         <f aca="false">B4 / E4</f>
-        <v>17.1695695452801</v>
+        <v>17.1317749315452</v>
       </c>
       <c r="J4" s="1" t="n">
         <f aca="false">B4 / F4</f>
-        <v>29.5376678398189</v>
+        <v>28.7435122712453</v>
       </c>
       <c r="K4" s="1" t="n">
         <f aca="false">G4 / C1</f>
-        <v>1.0951668733399</v>
+        <v>1.09987435995116</v>
       </c>
       <c r="L4" s="1" t="n">
         <f aca="false">H4 / D1</f>
-        <v>1.02742486319928</v>
+        <v>1.02040225281425</v>
       </c>
       <c r="M4" s="1" t="n">
         <f aca="false">I4 / E1</f>
-        <v>1.07309809658</v>
+        <v>1.07073593322158</v>
       </c>
       <c r="N4" s="1" t="n">
         <f aca="false">J4 / F1</f>
-        <v>0.92305211999434</v>
+        <v>0.898234758476417</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -385,51 +385,51 @@
         <v>1920</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>96.08</v>
+        <v>96.44</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>21.4961429638</v>
+        <v>21.4223518175</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>10.7536711041</v>
+        <v>10.755598861</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>5.4994684987</v>
+        <v>5.488872860625</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>2.82097777</v>
+        <v>2.835744281625</v>
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">B5 / C5</f>
-        <v>4.46963904928437</v>
+        <v>4.50183998571146</v>
       </c>
       <c r="H5" s="1" t="n">
         <f aca="false">B5 / D5</f>
-        <v>8.9346232621312</v>
+        <v>8.96649282353707</v>
       </c>
       <c r="I5" s="1" t="n">
         <f aca="false">B5 / E5</f>
-        <v>17.4707792257946</v>
+        <v>17.5700917927654</v>
       </c>
       <c r="J5" s="1" t="n">
         <f aca="false">B5 / F5</f>
-        <v>34.0591127735119</v>
+        <v>34.0087082692576</v>
       </c>
       <c r="K5" s="1" t="n">
         <f aca="false">G5 / C1</f>
-        <v>1.11740976232109</v>
+        <v>1.12545999642786</v>
       </c>
       <c r="L5" s="1" t="n">
         <f aca="false">H5 / D1</f>
-        <v>1.1168279077664</v>
+        <v>1.12081160294213</v>
       </c>
       <c r="M5" s="1" t="n">
         <f aca="false">I5 / E1</f>
-        <v>1.09192370161217</v>
+        <v>1.09813073704784</v>
       </c>
       <c r="N5" s="1" t="n">
         <f aca="false">J5 / F1</f>
-        <v>1.06434727417225</v>
+        <v>1.0627721334143</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,51 +437,51 @@
         <v>2080</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>131.746</v>
+        <v>131.875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>30.3472938844</v>
+        <v>30.178509539125</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>15.0867987553</v>
+        <v>15.084291512625</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>7.5041947851</v>
+        <v>7.519682262</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>3.8529888143</v>
+        <v>3.86616298375</v>
       </c>
       <c r="G6" s="1" t="n">
         <f aca="false">B6 / C6</f>
-        <v>4.34127670499556</v>
+        <v>4.36983144674625</v>
       </c>
       <c r="H6" s="1" t="n">
         <f aca="false">B6 / D6</f>
-        <v>8.73253512138999</v>
+        <v>8.74253854678063</v>
       </c>
       <c r="I6" s="1" t="n">
         <f aca="false">B6 / E6</f>
-        <v>17.5563140047469</v>
+        <v>17.5373101422673</v>
       </c>
       <c r="J6" s="1" t="n">
         <f aca="false">B6 / F6</f>
-        <v>34.1931955553666</v>
+        <v>34.1100467192636</v>
       </c>
       <c r="K6" s="1" t="n">
         <f aca="false">G6 / C1</f>
-        <v>1.08531917624889</v>
+        <v>1.09245786168656</v>
       </c>
       <c r="L6" s="1" t="n">
         <f aca="false">H6 / D1</f>
-        <v>1.09156689017375</v>
+        <v>1.09281731834758</v>
       </c>
       <c r="M6" s="1" t="n">
         <f aca="false">I6 / E1</f>
-        <v>1.09726962529668</v>
+        <v>1.09608188389171</v>
       </c>
       <c r="N6" s="1" t="n">
         <f aca="false">J6 / F1</f>
-        <v>1.06853736110521</v>
+        <v>1.06593895997699</v>
       </c>
     </row>
   </sheetData>
